--- a/dataanalysis/data/predictions/1200/09081135_1137.xlsx
+++ b/dataanalysis/data/predictions/1200/09081135_1137.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-08</t>
   </si>
   <si>
@@ -359,12 +362,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -722,13 +719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,19 +828,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.5600000000000001</v>
@@ -861,7 +861,7 @@
         <v>1079639.14</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -902,8 +902,23 @@
       <c r="W2">
         <v>-0.46</v>
       </c>
+      <c r="X2">
+        <v>-3.63</v>
+      </c>
+      <c r="Y2">
+        <v>74.88</v>
+      </c>
+      <c r="Z2">
+        <v>-3.46</v>
+      </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -911,22 +926,25 @@
       <c r="AG2">
         <v>24.31527900695801</v>
       </c>
-      <c r="AH2" t="s">
-        <v>115</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300035</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.61</v>
@@ -944,7 +962,7 @@
         <v>210863.31</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -985,8 +1003,23 @@
       <c r="W3">
         <v>-0.76</v>
       </c>
+      <c r="X3">
+        <v>-5.66</v>
+      </c>
+      <c r="Y3">
+        <v>23.26</v>
+      </c>
+      <c r="Z3">
+        <v>-2.43</v>
+      </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -994,22 +1027,25 @@
       <c r="AG3">
         <v>1.857481956481934</v>
       </c>
-      <c r="AH3" t="s">
-        <v>115</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300092</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.25</v>
@@ -1027,7 +1063,7 @@
         <v>94915.89999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1068,8 +1104,23 @@
       <c r="W4">
         <v>2.26</v>
       </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>21.34</v>
+      </c>
+      <c r="Z4">
+        <v>2.4</v>
+      </c>
       <c r="AC4" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1077,22 +1128,25 @@
       <c r="AG4">
         <v>4.013472080230713</v>
       </c>
-      <c r="AH4" t="s">
-        <v>115</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300124</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>14.52</v>
@@ -1110,7 +1164,7 @@
         <v>656654.6899999999</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1151,8 +1205,23 @@
       <c r="W5">
         <v>0.26</v>
       </c>
+      <c r="X5">
+        <v>-3.82</v>
+      </c>
+      <c r="Y5">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>-3.69</v>
+      </c>
       <c r="AC5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1160,22 +1229,25 @@
       <c r="AG5">
         <v>-3.589457273483276</v>
       </c>
-      <c r="AH5" t="s">
-        <v>115</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300207</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.67</v>
@@ -1193,7 +1265,7 @@
         <v>644629.4</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1234,8 +1306,23 @@
       <c r="W6">
         <v>-0.98</v>
       </c>
+      <c r="X6">
+        <v>-5.06</v>
+      </c>
+      <c r="Y6">
+        <v>29.89</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
       <c r="AC6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1243,22 +1330,25 @@
       <c r="AG6">
         <v>9.517619132995605</v>
       </c>
-      <c r="AH6" t="s">
-        <v>115</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300237</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.12</v>
@@ -1276,7 +1366,7 @@
         <v>45878.43</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1317,8 +1407,23 @@
       <c r="W7">
         <v>-0.28</v>
       </c>
+      <c r="X7">
+        <v>3.02</v>
+      </c>
+      <c r="Y7">
+        <v>3.53</v>
+      </c>
+      <c r="Z7">
+        <v>6.97</v>
+      </c>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1326,22 +1431,25 @@
       <c r="AG7">
         <v>-5.716535091400146</v>
       </c>
-      <c r="AH7" t="s">
-        <v>115</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300274</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.61</v>
@@ -1359,7 +1467,7 @@
         <v>1999786.19</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1400,8 +1508,23 @@
       <c r="W8">
         <v>-0.23</v>
       </c>
+      <c r="X8">
+        <v>-5.18</v>
+      </c>
+      <c r="Y8">
+        <v>135.34</v>
+      </c>
+      <c r="Z8">
+        <v>-1.59</v>
+      </c>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1409,22 +1532,25 @@
       <c r="AG8">
         <v>-0.9483474493026733</v>
       </c>
-      <c r="AH8" t="s">
-        <v>115</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300328</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>6.85</v>
@@ -1442,7 +1568,7 @@
         <v>260965.79</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1483,8 +1609,23 @@
       <c r="W9">
         <v>0.76</v>
       </c>
+      <c r="X9">
+        <v>-12.2</v>
+      </c>
+      <c r="Y9">
+        <v>20.11</v>
+      </c>
+      <c r="Z9">
+        <v>-2.28</v>
+      </c>
       <c r="AC9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1492,22 +1633,25 @@
       <c r="AG9">
         <v>3.162441730499268</v>
       </c>
-      <c r="AH9" t="s">
-        <v>115</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300331</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-4.07</v>
@@ -1525,7 +1669,7 @@
         <v>166906.83</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1566,8 +1710,23 @@
       <c r="W10">
         <v>-2.04</v>
       </c>
+      <c r="X10">
+        <v>-5.26</v>
+      </c>
+      <c r="Y10">
+        <v>31.96</v>
+      </c>
+      <c r="Z10">
+        <v>-1.05</v>
+      </c>
       <c r="AC10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1575,22 +1734,25 @@
       <c r="AG10">
         <v>1.242333889007568</v>
       </c>
-      <c r="AH10" t="s">
-        <v>115</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300409</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1.03</v>
@@ -1608,7 +1770,7 @@
         <v>265942.35</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1649,8 +1811,23 @@
       <c r="W11">
         <v>0.45</v>
       </c>
+      <c r="X11">
+        <v>-1.85</v>
+      </c>
+      <c r="Y11">
+        <v>24.49</v>
+      </c>
+      <c r="Z11">
+        <v>-0.41</v>
+      </c>
       <c r="AC11" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1658,22 +1835,25 @@
       <c r="AG11">
         <v>8.778755187988281</v>
       </c>
-      <c r="AH11" t="s">
-        <v>115</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300410</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-4.04</v>
@@ -1691,7 +1871,7 @@
         <v>67523.33</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1732,8 +1912,23 @@
       <c r="W12">
         <v>0.14</v>
       </c>
+      <c r="X12">
+        <v>-3.84</v>
+      </c>
+      <c r="Y12">
+        <v>10.88</v>
+      </c>
+      <c r="Z12">
+        <v>1.78</v>
+      </c>
       <c r="AC12" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1741,22 +1936,25 @@
       <c r="AG12">
         <v>3.561293840408325</v>
       </c>
-      <c r="AH12" t="s">
-        <v>116</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300433</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.18</v>
@@ -1774,7 +1972,7 @@
         <v>410713.7</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1815,8 +2013,23 @@
       <c r="W13">
         <v>-0.03</v>
       </c>
+      <c r="X13">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>32</v>
+      </c>
+      <c r="Z13">
+        <v>-1.23</v>
+      </c>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1824,22 +2037,25 @@
       <c r="AG13">
         <v>53.08603286743164</v>
       </c>
-      <c r="AH13" t="s">
-        <v>115</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300450</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.88</v>
@@ -1857,7 +2073,7 @@
         <v>1669250.66</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -1898,8 +2114,23 @@
       <c r="W14">
         <v>-1.84</v>
       </c>
+      <c r="X14">
+        <v>-2.32</v>
+      </c>
+      <c r="Y14">
+        <v>57.83</v>
+      </c>
+      <c r="Z14">
+        <v>0.57</v>
+      </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1907,22 +2138,25 @@
       <c r="AG14">
         <v>15.38716220855713</v>
       </c>
-      <c r="AH14" t="s">
-        <v>115</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300457</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.92</v>
@@ -1940,7 +2174,7 @@
         <v>210074.5</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1981,8 +2215,23 @@
       <c r="W15">
         <v>-0.75</v>
       </c>
+      <c r="X15">
+        <v>-4.7</v>
+      </c>
+      <c r="Y15">
+        <v>29.2</v>
+      </c>
+      <c r="Z15">
+        <v>-3.38</v>
+      </c>
       <c r="AC15" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1990,22 +2239,25 @@
       <c r="AG15">
         <v>6.049716472625732</v>
       </c>
-      <c r="AH15" t="s">
-        <v>115</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300465</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.82</v>
@@ -2023,7 +2275,7 @@
         <v>118940.61</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2064,8 +2316,23 @@
       <c r="W16">
         <v>0.83</v>
       </c>
+      <c r="X16">
+        <v>-1.66</v>
+      </c>
+      <c r="Y16">
+        <v>26.62</v>
+      </c>
+      <c r="Z16">
+        <v>2.98</v>
+      </c>
       <c r="AC16" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2073,22 +2340,25 @@
       <c r="AG16">
         <v>4.676364898681641</v>
       </c>
-      <c r="AH16" t="s">
-        <v>115</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300469</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.2</v>
@@ -2106,7 +2376,7 @@
         <v>83134.99000000001</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2147,8 +2417,23 @@
       <c r="W17">
         <v>0.3</v>
       </c>
+      <c r="X17">
+        <v>-4.84</v>
+      </c>
+      <c r="Y17">
+        <v>70.78</v>
+      </c>
+      <c r="Z17">
+        <v>3.1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2156,22 +2441,25 @@
       <c r="AG17">
         <v>8.257967948913574</v>
       </c>
-      <c r="AH17" t="s">
-        <v>115</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300475</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>9.1</v>
@@ -2189,7 +2477,7 @@
         <v>136792.04</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2230,8 +2518,23 @@
       <c r="W18">
         <v>0.72</v>
       </c>
+      <c r="X18">
+        <v>6.09</v>
+      </c>
+      <c r="Y18">
+        <v>55.43</v>
+      </c>
+      <c r="Z18">
+        <v>18.19</v>
+      </c>
       <c r="AC18" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2239,22 +2542,25 @@
       <c r="AG18">
         <v>-3.281399488449097</v>
       </c>
-      <c r="AH18" t="s">
-        <v>115</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300486</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.72</v>
@@ -2272,7 +2578,7 @@
         <v>129414.69</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19">
         <v>14</v>
@@ -2313,8 +2619,23 @@
       <c r="W19">
         <v>0.06</v>
       </c>
+      <c r="X19">
+        <v>-5.77</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>-1.65</v>
+      </c>
       <c r="AC19" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2322,22 +2643,25 @@
       <c r="AG19">
         <v>6.153479099273682</v>
       </c>
-      <c r="AH19" t="s">
-        <v>115</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300491</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>6.82</v>
@@ -2355,7 +2679,7 @@
         <v>73680.34</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2396,8 +2720,23 @@
       <c r="W20">
         <v>0.72</v>
       </c>
+      <c r="X20">
+        <v>-5.35</v>
+      </c>
+      <c r="Y20">
+        <v>40.6</v>
+      </c>
+      <c r="Z20">
+        <v>2.06</v>
+      </c>
       <c r="AC20" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2405,22 +2744,25 @@
       <c r="AG20">
         <v>4.352926254272461</v>
       </c>
-      <c r="AH20" t="s">
-        <v>115</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300539</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>19.99</v>
@@ -2438,7 +2780,7 @@
         <v>78708.66</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2479,8 +2821,23 @@
       <c r="W21">
         <v>2.1</v>
       </c>
+      <c r="X21">
+        <v>-1.47</v>
+      </c>
+      <c r="Y21">
+        <v>40.6</v>
+      </c>
+      <c r="Z21">
+        <v>3.1</v>
+      </c>
       <c r="AC21" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2488,22 +2845,25 @@
       <c r="AG21">
         <v>7.067984104156494</v>
       </c>
-      <c r="AH21" t="s">
-        <v>115</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>8.880000000000001</v>
@@ -2521,7 +2881,7 @@
         <v>120861.38</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -2562,8 +2922,23 @@
       <c r="W22">
         <v>0.52</v>
       </c>
+      <c r="X22">
+        <v>-5.7</v>
+      </c>
+      <c r="Y22">
+        <v>80.87</v>
+      </c>
+      <c r="Z22">
+        <v>1.47</v>
+      </c>
       <c r="AC22" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2571,22 +2946,25 @@
       <c r="AG22">
         <v>3.456132888793945</v>
       </c>
-      <c r="AH22" t="s">
-        <v>115</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300618</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>11.44</v>
@@ -2604,7 +2982,7 @@
         <v>214256.41</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2645,8 +3023,23 @@
       <c r="W23">
         <v>0.11</v>
       </c>
+      <c r="X23">
+        <v>-4.8</v>
+      </c>
+      <c r="Y23">
+        <v>51.73</v>
+      </c>
+      <c r="Z23">
+        <v>-2.58</v>
+      </c>
       <c r="AC23" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2654,22 +3047,25 @@
       <c r="AG23">
         <v>3.324605703353882</v>
       </c>
-      <c r="AH23" t="s">
-        <v>116</v>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300619</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>11.04</v>
@@ -2687,7 +3083,7 @@
         <v>145140.62</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2728,8 +3124,23 @@
       <c r="W24">
         <v>-4.89</v>
       </c>
+      <c r="X24">
+        <v>5.61</v>
+      </c>
+      <c r="Y24">
+        <v>39.01</v>
+      </c>
+      <c r="Z24">
+        <v>5.95</v>
+      </c>
       <c r="AC24" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2737,22 +3148,25 @@
       <c r="AG24">
         <v>-2.467210531234741</v>
       </c>
-      <c r="AH24" t="s">
-        <v>115</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300690</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>6.57</v>
@@ -2770,7 +3184,7 @@
         <v>60641.76</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2811,8 +3225,23 @@
       <c r="W25">
         <v>0.87</v>
       </c>
+      <c r="X25">
+        <v>-1.53</v>
+      </c>
+      <c r="Y25">
+        <v>38.42</v>
+      </c>
+      <c r="Z25">
+        <v>-1.36</v>
+      </c>
       <c r="AC25" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2820,22 +3249,25 @@
       <c r="AG25">
         <v>3.598561525344849</v>
       </c>
-      <c r="AH25" t="s">
-        <v>115</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300757</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>7.71</v>
@@ -2853,7 +3285,7 @@
         <v>226745.16</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -2894,8 +3326,23 @@
       <c r="W26">
         <v>0.8</v>
       </c>
+      <c r="X26">
+        <v>3.5</v>
+      </c>
+      <c r="Y26">
+        <v>262.99</v>
+      </c>
+      <c r="Z26">
+        <v>1.76</v>
+      </c>
       <c r="AC26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2903,22 +3350,25 @@
       <c r="AG26">
         <v>1.4986811876297</v>
       </c>
-      <c r="AH26" t="s">
-        <v>115</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300763</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>5.49</v>
@@ -2936,7 +3386,7 @@
         <v>485554.94</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2977,8 +3427,23 @@
       <c r="W27">
         <v>-0.35</v>
       </c>
+      <c r="X27">
+        <v>-2.86</v>
+      </c>
+      <c r="Y27">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="Z27">
+        <v>-1.85</v>
+      </c>
       <c r="AC27" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -2986,22 +3451,25 @@
       <c r="AG27">
         <v>-6.254361152648926</v>
       </c>
-      <c r="AH27" t="s">
-        <v>115</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300772</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.46</v>
@@ -3019,7 +3487,7 @@
         <v>106224.11</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28">
         <v>11</v>
@@ -3060,8 +3528,23 @@
       <c r="W28">
         <v>-0.83</v>
       </c>
+      <c r="X28">
+        <v>-3.12</v>
+      </c>
+      <c r="Y28">
+        <v>18.76</v>
+      </c>
+      <c r="Z28">
+        <v>1.85</v>
+      </c>
       <c r="AC28" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3069,22 +3552,25 @@
       <c r="AG28">
         <v>3.159978628158569</v>
       </c>
-      <c r="AH28" t="s">
-        <v>115</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300801</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10.34</v>
@@ -3102,7 +3588,7 @@
         <v>82506.17999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3143,8 +3629,23 @@
       <c r="W29">
         <v>-0.01</v>
       </c>
+      <c r="X29">
+        <v>7.04</v>
+      </c>
+      <c r="Y29">
+        <v>34.3</v>
+      </c>
+      <c r="Z29">
+        <v>9.720000000000001</v>
+      </c>
       <c r="AC29" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3152,22 +3653,25 @@
       <c r="AG29">
         <v>1.349336743354797</v>
       </c>
-      <c r="AH29" t="s">
-        <v>115</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300827</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-0.73</v>
@@ -3185,7 +3689,7 @@
         <v>260756.38</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3226,8 +3730,23 @@
       <c r="W30">
         <v>-0.31</v>
       </c>
+      <c r="X30">
+        <v>3.38</v>
+      </c>
+      <c r="Y30">
+        <v>38.33</v>
+      </c>
+      <c r="Z30">
+        <v>8.890000000000001</v>
+      </c>
       <c r="AC30" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3235,22 +3754,25 @@
       <c r="AG30">
         <v>3.047825336456299</v>
       </c>
-      <c r="AH30" t="s">
-        <v>115</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300857</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>8.609999999999999</v>
@@ -3268,7 +3790,7 @@
         <v>253849.37</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31">
         <v>12</v>
@@ -3309,8 +3831,23 @@
       <c r="W31">
         <v>0.41</v>
       </c>
+      <c r="X31">
+        <v>2.1</v>
+      </c>
+      <c r="Y31">
+        <v>116</v>
+      </c>
+      <c r="Z31">
+        <v>2.7</v>
+      </c>
       <c r="AC31" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3318,22 +3855,25 @@
       <c r="AG31">
         <v>6.016014575958252</v>
       </c>
-      <c r="AH31" t="s">
-        <v>115</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300859</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.87</v>
@@ -3351,7 +3891,7 @@
         <v>59721.14</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3392,8 +3932,23 @@
       <c r="W32">
         <v>-0.14</v>
       </c>
+      <c r="X32">
+        <v>-0.13</v>
+      </c>
+      <c r="Y32">
+        <v>47.35</v>
+      </c>
+      <c r="Z32">
+        <v>0.87</v>
+      </c>
       <c r="AC32" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3401,22 +3956,25 @@
       <c r="AG32">
         <v>4.630132675170898</v>
       </c>
-      <c r="AH32" t="s">
-        <v>115</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300953</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>5.25</v>
@@ -3434,7 +3992,7 @@
         <v>152137.61</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3475,8 +4033,23 @@
       <c r="W33">
         <v>0.58</v>
       </c>
+      <c r="X33">
+        <v>0.12</v>
+      </c>
+      <c r="Y33">
+        <v>162.47</v>
+      </c>
+      <c r="Z33">
+        <v>1.86</v>
+      </c>
       <c r="AC33" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3484,22 +4057,25 @@
       <c r="AG33">
         <v>1.344546556472778</v>
       </c>
-      <c r="AH33" t="s">
-        <v>115</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301076</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -3517,7 +4093,7 @@
         <v>154347.97</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3558,8 +4134,23 @@
       <c r="W34">
         <v>2.72</v>
       </c>
+      <c r="X34">
+        <v>1.75</v>
+      </c>
+      <c r="Y34">
+        <v>65.55</v>
+      </c>
+      <c r="Z34">
+        <v>7.94</v>
+      </c>
       <c r="AC34" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3567,22 +4158,25 @@
       <c r="AG34">
         <v>16.79673385620117</v>
       </c>
-      <c r="AH34" t="s">
-        <v>115</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301150</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>12.1</v>
@@ -3600,7 +4194,7 @@
         <v>82706.27</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3641,8 +4235,23 @@
       <c r="W35">
         <v>1.76</v>
       </c>
+      <c r="X35">
+        <v>3.97</v>
+      </c>
+      <c r="Y35">
+        <v>39.7</v>
+      </c>
+      <c r="Z35">
+        <v>8.77</v>
+      </c>
       <c r="AC35" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3650,22 +4259,25 @@
       <c r="AG35">
         <v>-0.6932318806648254</v>
       </c>
-      <c r="AH35" t="s">
-        <v>115</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301219</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.91</v>
@@ -3683,7 +4295,7 @@
         <v>93273.03</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36">
         <v>14</v>
@@ -3724,8 +4336,23 @@
       <c r="W36">
         <v>0.64</v>
       </c>
+      <c r="X36">
+        <v>-3.44</v>
+      </c>
+      <c r="Y36">
+        <v>73.2</v>
+      </c>
+      <c r="Z36">
+        <v>-1.24</v>
+      </c>
       <c r="AC36" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3733,22 +4360,25 @@
       <c r="AG36">
         <v>1.397270321846008</v>
       </c>
-      <c r="AH36" t="s">
-        <v>116</v>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301312</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.42</v>
@@ -3766,7 +4396,7 @@
         <v>36651.69</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -3807,8 +4437,23 @@
       <c r="W37">
         <v>-1.08</v>
       </c>
+      <c r="X37">
+        <v>-7.11</v>
+      </c>
+      <c r="Y37">
+        <v>62</v>
+      </c>
+      <c r="Z37">
+        <v>1.22</v>
+      </c>
       <c r="AC37" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3816,22 +4461,25 @@
       <c r="AG37">
         <v>6.098269462585449</v>
       </c>
-      <c r="AH37" t="s">
-        <v>115</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301413</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>11.95</v>
@@ -3849,7 +4497,7 @@
         <v>86435.87</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -3890,8 +4538,23 @@
       <c r="W38">
         <v>0.84</v>
       </c>
+      <c r="X38">
+        <v>-0.9</v>
+      </c>
+      <c r="Y38">
+        <v>150</v>
+      </c>
+      <c r="Z38">
+        <v>0.74</v>
+      </c>
       <c r="AC38" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3899,22 +4562,25 @@
       <c r="AG38">
         <v>5.486447334289551</v>
       </c>
-      <c r="AH38" t="s">
-        <v>115</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301488</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.19</v>
@@ -3932,7 +4598,7 @@
         <v>90332.25</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -3973,8 +4639,23 @@
       <c r="W39">
         <v>1.41</v>
       </c>
+      <c r="X39">
+        <v>2.81</v>
+      </c>
+      <c r="Y39">
+        <v>152.9</v>
+      </c>
+      <c r="Z39">
+        <v>6.75</v>
+      </c>
       <c r="AC39" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3982,22 +4663,25 @@
       <c r="AG39">
         <v>10.14308547973633</v>
       </c>
-      <c r="AH39" t="s">
-        <v>115</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301617</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>8.98</v>
@@ -4015,7 +4699,7 @@
         <v>57696.11</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>12</v>
@@ -4056,8 +4740,23 @@
       <c r="W40">
         <v>2.26</v>
       </c>
+      <c r="X40">
+        <v>15.24</v>
+      </c>
+      <c r="Y40">
+        <v>88.19</v>
+      </c>
+      <c r="Z40">
+        <v>17.78</v>
+      </c>
       <c r="AC40" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4065,22 +4764,25 @@
       <c r="AG40">
         <v>7.224438667297363</v>
       </c>
-      <c r="AH40" t="s">
-        <v>115</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688006</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>8.07</v>
@@ -4098,7 +4800,7 @@
         <v>177550.86</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4139,8 +4841,23 @@
       <c r="W41">
         <v>0.18</v>
       </c>
+      <c r="X41">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>40.5</v>
+      </c>
+      <c r="Z41">
+        <v>-2.76</v>
+      </c>
       <c r="AC41" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4148,22 +4865,25 @@
       <c r="AG41">
         <v>6.833761215209961</v>
       </c>
-      <c r="AH41" t="s">
-        <v>116</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688066</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.24</v>
@@ -4181,7 +4901,7 @@
         <v>119411</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4222,8 +4942,23 @@
       <c r="W42">
         <v>0.59</v>
       </c>
+      <c r="X42">
+        <v>-9.529999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>38.21</v>
+      </c>
+      <c r="Z42">
+        <v>6.64</v>
+      </c>
       <c r="AC42" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4231,22 +4966,25 @@
       <c r="AG42">
         <v>62.7046012878418</v>
       </c>
-      <c r="AH42" t="s">
-        <v>116</v>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688116</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.93</v>
@@ -4264,7 +5002,7 @@
         <v>119583.27</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4305,8 +5043,23 @@
       <c r="W43">
         <v>0.46</v>
       </c>
+      <c r="X43">
+        <v>1.3</v>
+      </c>
+      <c r="Y43">
+        <v>59.7</v>
+      </c>
+      <c r="Z43">
+        <v>6.59</v>
+      </c>
       <c r="AC43" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4314,22 +5067,25 @@
       <c r="AG43">
         <v>-3.352682590484619</v>
       </c>
-      <c r="AH43" t="s">
-        <v>115</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688141</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.49</v>
@@ -4347,7 +5103,7 @@
         <v>100465.1</v>
       </c>
       <c r="J44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4388,8 +5144,23 @@
       <c r="W44">
         <v>0.87</v>
       </c>
+      <c r="X44">
+        <v>-2.3</v>
+      </c>
+      <c r="Y44">
+        <v>47.2</v>
+      </c>
+      <c r="Z44">
+        <v>0.19</v>
+      </c>
       <c r="AC44" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4397,22 +5168,25 @@
       <c r="AG44">
         <v>3.216601848602295</v>
       </c>
-      <c r="AH44" t="s">
-        <v>115</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688155</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -4430,7 +5204,7 @@
         <v>73338.62</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4471,8 +5245,23 @@
       <c r="W45">
         <v>0.48</v>
       </c>
+      <c r="X45">
+        <v>5.55</v>
+      </c>
+      <c r="Y45">
+        <v>81.8</v>
+      </c>
+      <c r="Z45">
+        <v>4.47</v>
+      </c>
       <c r="AC45" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4480,22 +5269,25 @@
       <c r="AG45">
         <v>3.829509258270264</v>
       </c>
-      <c r="AH45" t="s">
-        <v>116</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688195</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-9.44</v>
@@ -4513,7 +5305,7 @@
         <v>122995.17</v>
       </c>
       <c r="J46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46">
         <v>16</v>
@@ -4554,8 +5346,23 @@
       <c r="W46">
         <v>0.03</v>
       </c>
+      <c r="X46">
+        <v>1.02</v>
+      </c>
+      <c r="Y46">
+        <v>94.47</v>
+      </c>
+      <c r="Z46">
+        <v>12.45</v>
+      </c>
       <c r="AC46" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4563,22 +5370,25 @@
       <c r="AG46">
         <v>10.20314025878906</v>
       </c>
-      <c r="AH46" t="s">
-        <v>115</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688299</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-0.32</v>
@@ -4596,7 +5406,7 @@
         <v>76669.44</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -4637,8 +5447,23 @@
       <c r="W47">
         <v>0</v>
       </c>
+      <c r="X47">
+        <v>-4.98</v>
+      </c>
+      <c r="Y47">
+        <v>24.69</v>
+      </c>
+      <c r="Z47">
+        <v>-1.52</v>
+      </c>
       <c r="AC47" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4646,22 +5471,25 @@
       <c r="AG47">
         <v>4.404271125793457</v>
       </c>
-      <c r="AH47" t="s">
-        <v>115</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688390</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.69</v>
@@ -4679,7 +5507,7 @@
         <v>72100.56</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -4720,8 +5548,23 @@
       <c r="W48">
         <v>-0.3</v>
       </c>
+      <c r="X48">
+        <v>-4.08</v>
+      </c>
+      <c r="Y48">
+        <v>58.21</v>
+      </c>
+      <c r="Z48">
+        <v>1.22</v>
+      </c>
       <c r="AC48" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4729,22 +5572,25 @@
       <c r="AG48">
         <v>5.258567810058594</v>
       </c>
-      <c r="AH48" t="s">
-        <v>115</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688411</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.82</v>
@@ -4762,7 +5608,7 @@
         <v>94459.87</v>
       </c>
       <c r="J49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -4803,8 +5649,23 @@
       <c r="W49">
         <v>0.01</v>
       </c>
+      <c r="X49">
+        <v>2.65</v>
+      </c>
+      <c r="Y49">
+        <v>187.68</v>
+      </c>
+      <c r="Z49">
+        <v>1.29</v>
+      </c>
       <c r="AC49" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4812,22 +5673,25 @@
       <c r="AG49">
         <v>1.898947834968567</v>
       </c>
-      <c r="AH49" t="s">
-        <v>115</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688499</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>16.83</v>
@@ -4845,7 +5709,7 @@
         <v>179554.27</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4886,8 +5750,23 @@
       <c r="W50">
         <v>0.49</v>
       </c>
+      <c r="X50">
+        <v>-0.41</v>
+      </c>
+      <c r="Y50">
+        <v>79.56</v>
+      </c>
+      <c r="Z50">
+        <v>0.35</v>
+      </c>
       <c r="AC50" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4895,22 +5774,25 @@
       <c r="AG50">
         <v>-4.119093894958496</v>
       </c>
-      <c r="AH50" t="s">
-        <v>115</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688559</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.89</v>
@@ -4928,7 +5810,7 @@
         <v>127075.98</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4969,8 +5851,23 @@
       <c r="W51">
         <v>2.07</v>
       </c>
+      <c r="X51">
+        <v>-3.11</v>
+      </c>
+      <c r="Y51">
+        <v>42.17</v>
+      </c>
+      <c r="Z51">
+        <v>-1.84</v>
+      </c>
       <c r="AC51" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -4978,22 +5875,25 @@
       <c r="AG51">
         <v>-0.4474895298480988</v>
       </c>
-      <c r="AH51" t="s">
-        <v>115</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688717</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.88</v>
@@ -5011,7 +5911,7 @@
         <v>55893.32</v>
       </c>
       <c r="J52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5052,8 +5952,23 @@
       <c r="W52">
         <v>0.11</v>
       </c>
+      <c r="X52">
+        <v>-7.73</v>
+      </c>
+      <c r="Y52">
+        <v>81.44</v>
+      </c>
+      <c r="Z52">
+        <v>-0.35</v>
+      </c>
       <c r="AC52" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5061,8 +5976,11 @@
       <c r="AG52">
         <v>3.05391526222229</v>
       </c>
-      <c r="AH52" t="s">
-        <v>115</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
